--- a/docs/StructureDefinition-DiagnosticReportNoteCytopathologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteCytopathologyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiagnosticReportNoteCytopathologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteCytopathologyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiagnosticReportNoteCytopathologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteCytopathologyDiagnosticReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiagnosticReportNoteCytopathologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteCytopathologyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiagnosticReportNoteCytopathologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteCytopathologyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -754,7 +754,8 @@
     <t>1688: reference based on CYTOPATHOLOGY - ORDERED TEST &gt; ORDERED TEST - CPRS ORDER # (63.09-.35 &gt; 63.51-3)</t>
   </si>
   <si>
-    <t>Pathology.CytoOrderedTest.CPRSOrderIEN,Pathology.CytoOrderedTest.CPRSOrderSID</t>
+    <t>Pathology.CytoOrderedTest.CPRSOrderIEN
+Pathology.CytoOrderedTest.CPRSOrderSID</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -791,7 +792,8 @@
     <t>1418: terminologyMaps using VF_DiagnosticReportLabStatus on CYTOPATHOLOGY - ORDERED TEST &gt; ORDERED TEST - DISPOSITION (63.09-.35 &gt; 63.51-10)</t>
   </si>
   <si>
-    <t>Pathology.CytoOrderedTest.DispositionLabCodeIEN,Pathology.CytoOrderedTest.DispositionLabCodeSID</t>
+    <t>Pathology.CytoOrderedTest.DispositionLabCodeIEN
+Pathology.CytoOrderedTest.DispositionLabCodeSID</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1125,7 +1127,25 @@
     <t>2214: reference based on PATIENT - LABORATORY REFERENCE &gt; LAB DATA - LRDFN (2-63 &gt; 63-.01)</t>
   </si>
   <si>
-    <t>Micro.AntibioticSensitivity.LRDFN,Micro.AntibioticSensitivityComment.LRDFN,Micro.BacteriologyReports.LRDFN,Micro.MicroAntibioticLevel.LRDFN,Micro.MicroAudit.LRDFN,Micro.Microbiology.LRDFN,Micro.MicroOrderedTest.LRDFN,Micro.MicroSterilityResults.LRDFN,Micro.MycobacteriologyReports.LRDFN,Micro.Mycology.LRDFN,Micro.MycologyReports.LRDFN,Micro.Parasitology.LRDFN,Micro.ParasitologyReports.LRDFN,Micro.ParasitologyStage.LRDFN,Micro.Virology.LRDFN,Micro.VirologyReports.LRDFN,Pathology.Autopsy.LRDFN,Pathology.CytoOrganTissueFunction.StaffIEN,SStaff.SMicroOrderedTest.LRDFN</t>
+    <t>Micro.AntibioticSensitivity.LRDFN
+Micro.AntibioticSensitivityComment.LRDFN
+Micro.BacteriologyReports.LRDFN
+Micro.MicroAntibioticLevel.LRDFN
+Micro.MicroAudit.LRDFN
+Micro.Microbiology.LRDFN
+Micro.MicroOrderedTest.LRDFN
+Micro.MicroSterilityResults.LRDFN
+Micro.MycobacteriologyReports.LRDFN
+Micro.Mycology.LRDFN
+Micro.MycologyReports.LRDFN
+Micro.Parasitology.LRDFN
+Micro.ParasitologyReports.LRDFN
+Micro.ParasitologyStage.LRDFN
+Micro.Virology.LRDFN
+Micro.VirologyReports.LRDFN
+Pathology.Autopsy.LRDFN
+Pathology.CytoOrganTissueFunction.StaffIEN
+SStaff.SMicroOrderedTest.LRDFN</t>
   </si>
   <si>
     <t>Patient.Extension[PatientExtension].VeteranLrdfn</t>
@@ -1236,10 +1256,34 @@
     <t>1426: source value based on CYTOPATHOLOGY - DATE/TIME SPECIMEN TAKEN (63.09-.01)</t>
   </si>
   <si>
-    <t>Pathology.CytoDelayedReportComment.SpecimenTakenDateTime,Pathology.CytoDiagnosis.SpecimenTakenDateTime,Pathology.CytoGrossDescription.SpecimenTakenDateTime,Pathology.CytoMicroscopicExam.SpecimenTakenDateTime,Pathology.CytoOpFinding.SpecimenTakenDateTime,Pathology.CytoOrderedTest.SpecimenTakenDateTime,Pathology.CytoOrganTissueDisease.SpecimenTakenDateTime,Pathology.CytoOrganTissueEtiology.SpecimenTakenDateTime,Pathology.CytoOrganTissueFunction.SpecimenTakenDateTime,Pathology.CytoOrganTissueMorphology.SpecimenTakenDateTime,Pathology.CytoOrganTissueProcedure.SpecimenTakenDateTime,Pathology.Cytopathology.SpecimenTakenDateTime,Pathology.CytoPostOpDiagnosis.SpecimenTakenDateTime,Pathology.CytoPreOpDiagnosis.SpecimenTakenDateTime,Pathology.CytoReportComment.SpecimenTakenDateTime,Pathology.CytoSpecimen.SpecimenTakenDateTime,Pathology.CytoStainBlock.SpecimenTakenDateTime,Pathology.CytoStainCytospin.SpecimenTakenDateTime,Pathology.CytoStainMembrane.SpecimenTakenDateTime,Pathology.CytoStainProcedure.SpecimenTakenDateTime,Pathology.CytoStainSlide.SpecimenTakenDateTime,Pathology.CytoSupplement.SpecimenTakenDateTime,Pathology.CytoSupplementDescript.SpecimenTakenDateTime,Pathology.CytoTIUReference.SpecimenTakenDateTime</t>
-  </si>
-  <si>
-    <t>document.encounter,document.referenceDateTime</t>
+    <t>Pathology.CytoDelayedReportComment.SpecimenTakenDateTime
+Pathology.CytoDiagnosis.SpecimenTakenDateTime
+Pathology.CytoGrossDescription.SpecimenTakenDateTime
+Pathology.CytoMicroscopicExam.SpecimenTakenDateTime
+Pathology.CytoOpFinding.SpecimenTakenDateTime
+Pathology.CytoOrderedTest.SpecimenTakenDateTime
+Pathology.CytoOrganTissueDisease.SpecimenTakenDateTime
+Pathology.CytoOrganTissueEtiology.SpecimenTakenDateTime
+Pathology.CytoOrganTissueFunction.SpecimenTakenDateTime
+Pathology.CytoOrganTissueMorphology.SpecimenTakenDateTime
+Pathology.CytoOrganTissueProcedure.SpecimenTakenDateTime
+Pathology.Cytopathology.SpecimenTakenDateTime
+Pathology.CytoPostOpDiagnosis.SpecimenTakenDateTime
+Pathology.CytoPreOpDiagnosis.SpecimenTakenDateTime
+Pathology.CytoReportComment.SpecimenTakenDateTime
+Pathology.CytoSpecimen.SpecimenTakenDateTime
+Pathology.CytoStainBlock.SpecimenTakenDateTime
+Pathology.CytoStainCytospin.SpecimenTakenDateTime
+Pathology.CytoStainMembrane.SpecimenTakenDateTime
+Pathology.CytoStainProcedure.SpecimenTakenDateTime
+Pathology.CytoStainSlide.SpecimenTakenDateTime
+Pathology.CytoSupplement.SpecimenTakenDateTime
+Pathology.CytoSupplementDescript.SpecimenTakenDateTime
+Pathology.CytoTIUReference.SpecimenTakenDateTime</t>
+  </si>
+  <si>
+    <t>document.encounter
+document.referenceDateTime</t>
   </si>
   <si>
     <t>DiagnosticReport.issued</t>
@@ -1335,7 +1379,8 @@
     <t>1436: reference based on CYTOPATHOLOGY - RELEASED BY (63.09-.13)</t>
   </si>
   <si>
-    <t>Pathology.Cytopathology.ReleasedByStaffIEN,Pathology.Cytopathology.ReleasedByStaffSID</t>
+    <t>Pathology.Cytopathology.ReleasedByStaffIEN
+Pathology.Cytopathology.ReleasedByStaffSID</t>
   </si>
   <si>
     <t>Documents.Extension[DocumentExtension].CareProviders</t>
@@ -1357,7 +1402,8 @@
     <t>1684: reference based on CYTOPATHOLOGY - RELEASING SITE (63.09-.345)</t>
   </si>
   <si>
-    <t>Pathology.Cytopathology.ReleasingInstitutionIEN,Pathology.Cytopathology.ReleasingInstitutionSID</t>
+    <t>Pathology.Cytopathology.ReleasingInstitutionIEN
+Pathology.Cytopathology.ReleasingInstitutionSID</t>
   </si>
   <si>
     <t>DiagnosticReport.resultsInterpreter</t>
@@ -1379,13 +1425,17 @@
     <t>1694: reference based on CYTOPATHOLOGY - PATHOLOGIST/CYTOTECHNOLOGIST (63.09-.02)</t>
   </si>
   <si>
-    <t>Pathology.Cytopathology.PathologistStaffIEN,Pathology.Cytopathology.PathologistStaffSID</t>
-  </si>
-  <si>
-    <t>Documents.Clinician,Documents.EnteredBy</t>
-  </si>
-  <si>
-    <t>document.clinician [m] (&gt;200-.01),document.clinician [m] (&gt;200-20.2),document.clinician [m] (&gt;200-8932.1)</t>
+    <t>Pathology.Cytopathology.PathologistStaffIEN
+Pathology.Cytopathology.PathologistStaffSID</t>
+  </si>
+  <si>
+    <t>Documents.Clinician
+Documents.EnteredBy</t>
+  </si>
+  <si>
+    <t>document.clinician [m] (&gt;200-.01)
+document.clinician [m] (&gt;200-20.2)
+document.clinician [m] (&gt;200-8932.1)</t>
   </si>
   <si>
     <t>OBR-32, PRT-8 (where this PRT-4-Participation = "PI")</t>
@@ -2178,9 +2228,9 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.96875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="46.68359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="87.57421875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="147.17578125" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="104.53515625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-DiagnosticReportNoteCytopathologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteCytopathologyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiagnosticReportNoteCytopathologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteCytopathologyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
